--- a/src/main/java/com/vapsTechnosoft/IVRM/data/PreAdmissionApllication.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/PreAdmissionApllication.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15255" windowHeight="7185" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15255" windowHeight="7185" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ApplicationForm_ChildDetails" sheetId="1" r:id="rId1"/>
     <sheet name="ApplicationForm_OtherDetails" sheetId="2" r:id="rId2"/>
     <sheet name="ResidentialAddress" sheetId="3" r:id="rId3"/>
-    <sheet name="FatherDetails_PreAdmApplication" sheetId="4" r:id="rId4"/>
-    <sheet name="MotherDetails_PreAdmApplication" sheetId="5" r:id="rId5"/>
-    <sheet name="MonthlyIncome_Parent" sheetId="6" r:id="rId6"/>
-    <sheet name="SiblingDetails_PreAdmAppl" sheetId="7" r:id="rId7"/>
-    <sheet name="GuardianDetails_PreAdmAppl" sheetId="8" r:id="rId8"/>
-    <sheet name="PreviousSchoolDetails" sheetId="9" r:id="rId9"/>
-    <sheet name="UnderTaking_Text" sheetId="10" r:id="rId10"/>
+    <sheet name="MotherDetails_PreAdmApplication" sheetId="5" r:id="rId4"/>
+    <sheet name="MonthlyIncome_Parent" sheetId="6" r:id="rId5"/>
+    <sheet name="SiblingDetails_PreAdmAppl" sheetId="7" r:id="rId6"/>
+    <sheet name="GuardianDetails_PreAdmAppl" sheetId="8" r:id="rId7"/>
+    <sheet name="PreviousSchoolDetails" sheetId="9" r:id="rId8"/>
+    <sheet name="UnderTaking_Text" sheetId="10" r:id="rId9"/>
+    <sheet name="FatherDetailsPreAdmApplForm" sheetId="12" r:id="rId10"/>
+    <sheet name="Search_StudentInGrid" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
   <si>
     <t>FirstName</t>
   </si>
@@ -109,12 +110,6 @@
     <t>Jha</t>
   </si>
   <si>
-    <t>Bose</t>
-  </si>
-  <si>
-    <t>Arvind</t>
-  </si>
-  <si>
     <t>SecondLanguage</t>
   </si>
   <si>
@@ -172,45 +167,12 @@
     <t>FatherName</t>
   </si>
   <si>
-    <t>FatherQualification</t>
-  </si>
-  <si>
-    <t>FatherOccupation</t>
-  </si>
-  <si>
-    <t>FatherReligion</t>
-  </si>
-  <si>
-    <t>FatherCaste</t>
-  </si>
-  <si>
-    <t>FatherTribe</t>
-  </si>
-  <si>
-    <t>FatherNationality</t>
-  </si>
-  <si>
-    <t>FatherEmail</t>
-  </si>
-  <si>
-    <t>FatherPhOffice</t>
-  </si>
-  <si>
-    <t>FatherPhoneResidance</t>
-  </si>
-  <si>
-    <t>FatherMobile</t>
-  </si>
-  <si>
     <t>08060606161</t>
   </si>
   <si>
     <t>father@gmail.com</t>
   </si>
   <si>
-    <t>Hindu</t>
-  </si>
-  <si>
     <t>Engineer</t>
   </si>
   <si>
@@ -361,7 +323,52 @@
     <t>Undertaking</t>
   </si>
   <si>
-    <t>I and my ward will abide by and accept the rules of the school. I shall pay all the school fees quarterly or annually. I am willing to pay all other dues as necessary. I have no objection to my child participatin in any extra curricular activities run by the school</t>
+    <t>Undertaking by the Parents/Guardian :* I and my ward will abide by and accept the rules of the school. I shall pay all the school fees quarterly or annually. I am willing to pay all other dues as necessary. I have no objection to my child participatin in any extra curricular activities run by the school</t>
+  </si>
+  <si>
+    <t>QualiFication</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>08061606160</t>
+  </si>
+  <si>
+    <t>08060616061</t>
+  </si>
+  <si>
+    <t>SomeOne</t>
+  </si>
+  <si>
+    <t>Rao</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Mrunal</t>
+  </si>
+  <si>
+    <t>Gowda</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Akash Mrunal Gowda</t>
   </si>
 </sst>
 </file>
@@ -446,6 +453,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -734,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -802,10 +814,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -844,49 +856,211 @@
         <v>16</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -907,16 +1081,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -924,16 +1098,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -963,22 +1137,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -986,22 +1160,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
@@ -1015,131 +1189,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1159,40 +1212,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>14</v>
@@ -1200,37 +1253,37 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>26</v>
@@ -1248,7 +1301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1260,16 +1313,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -1277,16 +1330,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1300,7 +1353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1317,13 +1370,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
@@ -1331,13 +1384,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -1348,7 +1401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1366,19 +1419,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -1386,16 +1439,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -1409,12 +1462,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1425,19 +1478,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -1445,21 +1498,55 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
     </row>
